--- a/Congreso_2012/Ponentes Sesiones Tematicas Aprobados IV CCF, versión agosto 10.xlsx
+++ b/Congreso_2012/Ponentes Sesiones Tematicas Aprobados IV CCF, versión agosto 10.xlsx
@@ -2194,7 +2194,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="13">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2239,19 +2239,11 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="4" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2338,10 +2330,10 @@
   </sheetPr>
   <dimension ref="A1:G220"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A31" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="C31" activeCellId="0" sqref="C31"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="A30" activePane="bottomLeft" state="frozen"/>
+      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="G31" activeCellId="0" sqref="G31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3273,10 +3265,10 @@
       <c r="C43" s="8" t="s">
         <v>158</v>
       </c>
-      <c r="D43" s="11" t="s">
+      <c r="D43" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="E43" s="11" t="s">
+      <c r="E43" s="8" t="s">
         <v>39</v>
       </c>
       <c r="F43" s="6" t="s">
@@ -3430,7 +3422,7 @@
       <c r="E50" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="F50" s="12" t="s">
+      <c r="F50" s="11" t="s">
         <v>25</v>
       </c>
       <c r="G50" s="6"/>
@@ -4139,10 +4131,10 @@
       <c r="C83" s="8" t="s">
         <v>279</v>
       </c>
-      <c r="D83" s="11" t="s">
+      <c r="D83" s="8" t="s">
         <v>152</v>
       </c>
-      <c r="E83" s="11" t="s">
+      <c r="E83" s="8" t="s">
         <v>11</v>
       </c>
       <c r="F83" s="0" t="s">
@@ -4783,7 +4775,7 @@
       <c r="A113" s="7" t="s">
         <v>367</v>
       </c>
-      <c r="B113" s="13" t="s">
+      <c r="B113" s="12" t="s">
         <v>368</v>
       </c>
       <c r="C113" s="8" t="s">
@@ -6682,7 +6674,7 @@
       <c r="E200" s="8" t="s">
         <v>142</v>
       </c>
-      <c r="F200" s="12" t="s">
+      <c r="F200" s="11" t="s">
         <v>55</v>
       </c>
       <c r="G200" s="6"/>
@@ -6883,13 +6875,13 @@
       <c r="G209" s="6"/>
     </row>
     <row r="210" customFormat="false" ht="27" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A210" s="14" t="s">
+      <c r="A210" s="7" t="s">
         <v>655</v>
       </c>
-      <c r="B210" s="11" t="s">
+      <c r="B210" s="8" t="s">
         <v>656</v>
       </c>
-      <c r="C210" s="11" t="s">
+      <c r="C210" s="8" t="s">
         <v>657</v>
       </c>
       <c r="D210" s="8" t="s">
@@ -6904,19 +6896,19 @@
       <c r="G210" s="6"/>
     </row>
     <row r="211" customFormat="false" ht="27" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A211" s="14" t="s">
+      <c r="A211" s="7" t="s">
         <v>658</v>
       </c>
-      <c r="B211" s="11" t="s">
+      <c r="B211" s="8" t="s">
         <v>659</v>
       </c>
-      <c r="C211" s="11" t="s">
+      <c r="C211" s="8" t="s">
         <v>660</v>
       </c>
-      <c r="D211" s="11" t="s">
+      <c r="D211" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="E211" s="11" t="s">
+      <c r="E211" s="8" t="s">
         <v>142</v>
       </c>
       <c r="F211" s="0" t="s">
@@ -6927,13 +6919,13 @@
       </c>
     </row>
     <row r="212" customFormat="false" ht="27" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A212" s="14" t="s">
+      <c r="A212" s="7" t="s">
         <v>661</v>
       </c>
-      <c r="B212" s="11" t="s">
+      <c r="B212" s="8" t="s">
         <v>662</v>
       </c>
-      <c r="C212" s="11" t="s">
+      <c r="C212" s="8" t="s">
         <v>663</v>
       </c>
       <c r="D212" s="8" t="s">
@@ -6950,13 +6942,13 @@
       </c>
     </row>
     <row r="213" customFormat="false" ht="28.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A213" s="14" t="s">
+      <c r="A213" s="7" t="s">
         <v>664</v>
       </c>
       <c r="B213" s="6" t="s">
         <v>665</v>
       </c>
-      <c r="C213" s="11" t="s">
+      <c r="C213" s="8" t="s">
         <v>666</v>
       </c>
       <c r="D213" s="8" t="s">
@@ -6973,13 +6965,13 @@
       </c>
     </row>
     <row r="214" customFormat="false" ht="24.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A214" s="14" t="s">
+      <c r="A214" s="7" t="s">
         <v>667</v>
       </c>
       <c r="B214" s="0" t="s">
         <v>668</v>
       </c>
-      <c r="C214" s="11" t="s">
+      <c r="C214" s="8" t="s">
         <v>669</v>
       </c>
       <c r="D214" s="8" t="s">
